--- a/tesi_camilla/casi MarioU/Siracusa/sets.xlsx
+++ b/tesi_camilla/casi MarioU/Siracusa/sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/casi MarioU/Siracusa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D36526A-EF84-4A4F-907E-87FF31002C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487F6DE-AB02-5E45-814D-61E847861775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_days" sheetId="1" r:id="rId1"/>
@@ -4772,7 +4772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -20326,7 +20326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
